--- a/biology/Zoologie/Acanthocreagris_leucadia/Acanthocreagris_leucadia.xlsx
+++ b/biology/Zoologie/Acanthocreagris_leucadia/Acanthocreagris_leucadia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthocreagris leucadia est une espèce de pseudoscorpions de la famille des Neobisiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Grèce[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Grèce.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype de Acanthocreagris leucadia leucadia mesure 1,9 mm[2]
-La femelle holotype de Acanthocreagris leucadia epirensis mesure 1,9 mm[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype de Acanthocreagris leucadia leucadia mesure 1,9 mm
+La femelle holotype de Acanthocreagris leucadia epirensis mesure 1,9 mm
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Pseudoscorpions of the World (version 3.0)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Pseudoscorpions of the World (version 3.0) :
 Acanthocreagris leucadia epirensis Mahnert, 1974 d'Épire
 Acanthocreagris leucadia leucadia (Mahnert, 1972) de Leucade</t>
         </is>
@@ -606,9 +624,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Microcreagris leucadia par Mahnert en 1972. Elle est placée dans le genre Acanthocreagris par Mahnert en 1974[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Microcreagris leucadia par Mahnert en 1972. Elle est placée dans le genre Acanthocreagris par Mahnert en 1974.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Leucade.
 Le nom de sous-espèce, composé de epir[e] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, l'Épire.
@@ -669,7 +691,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Mahnert, 1972 : Über griechische Pseudoskorpione I: Microcreagris leucadia nov. spec. (Arachnida: Pseudoscorpiones, Neobisiidae). Berichte des Naturwissenschaftlich-Medizinischen Vereins in Innsbruck, vol. 59, p. 51-56 (texte intégral).
 Mahnert, 1974 : Acanthocreagris nov. gen. mit Bemerkungen zur Gattung Microcreagris (Pseudoscorpiones, Neobisiidae) (Über griechische Pseudoskorpione IV). Revue suisse de Zoologie, vol. 81, no 4, p. 845-885 (texte intégral).</t>
